--- a/medicine/Enfance/Prix_du_livre_M._Christie/Prix_du_livre_M._Christie.xlsx
+++ b/medicine/Enfance/Prix_du_livre_M._Christie/Prix_du_livre_M._Christie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le prix du livre M. Christie était un prix littéraire canadien parrainé par la compagnie Christie Brown[1], fabricant de biscuits, qui comportait un volet anglophone et un volet francophone.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le prix du livre M. Christie était un prix littéraire canadien parrainé par la compagnie Christie Brown, fabricant de biscuits, qui comportait un volet anglophone et un volet francophone.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le prix, dédié aux livres pour la jeunesse, ne récompensait à l'origine qu'une seule œuvre lors de sa création en 1990[2]. En 1993, il se divise en trois catégories : publications destinées aux enfants de sept ans et moins, à ceux de huit à onze ans et aux adolescents de douze ans et plus. 
-Le prix a été abandonné après l'annonce des lauréats en 2003[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le prix, dédié aux livres pour la jeunesse, ne récompensait à l'origine qu'une seule œuvre lors de sa création en 1990. En 1993, il se divise en trois catégories : publications destinées aux enfants de sept ans et moins, à ceux de huit à onze ans et aux adolescents de douze ans et plus. 
+Le prix a été abandonné après l'annonce des lauréats en 2003.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Lauréats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1990 - Ginette Anfousse. Rosalie s'en va-t-en guerre, La courte échelle.
 1991 - François Gravel. Zamboni, Boréal.
@@ -575,7 +591,9 @@
           <t>7 ans et moins</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1993 - Dominique Jolin. C'est pas juste !, Le Raton Laveur.
 1994 - Joceline Sanschagrin et Hélène Desputeaux. Le Petit Pot et La petite sœur, Chouette.
@@ -615,7 +633,9 @@
           <t>8 à 11 ans</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1993 - Gilles Gauthier. Le gros problème du petit Marcus, La courte échelle.
 1994 - Christiane Duchesne. La 42e sœur de Bébert, Québec Amérique.
@@ -655,7 +675,9 @@
           <t>12 à 16 ans</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1993 - Dominique Demers. Un hiver de tourmente, La courte échelle (maintenant publié chez Québec Amérique).
 1994 - Dominique Demers. Les grands sapins ne meurent pas, Québec Amérique.
